--- a/testdata/HomeOwner.xlsx
+++ b/testdata/HomeOwner.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CIG\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labor\git\blackcomb\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3147D565-92B5-45C0-987B-0F868418DFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F156F-7F41-4420-A010-3F36A924E6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="20" r:id="rId1"/>
-    <sheet name="searchValues" sheetId="15" r:id="rId2"/>
+    <sheet name="master" sheetId="15" r:id="rId2"/>
     <sheet name="createAccount" sheetId="2" r:id="rId3"/>
     <sheet name="organizations" sheetId="18" r:id="rId4"/>
     <sheet name="accountSummary" sheetId="29" r:id="rId5"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="214">
   <si>
     <t>su</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>bbaker</t>
-  </si>
-  <si>
-    <t>BettyBaker</t>
   </si>
   <si>
     <t>GW_Logout_Link</t>
@@ -667,6 +664,39 @@
   </si>
   <si>
     <t>sSJlkVctA Automation</t>
+  </si>
+  <si>
+    <t>stephen.perrella</t>
+  </si>
+  <si>
+    <t>bnixon</t>
+  </si>
+  <si>
+    <t>paula.zaander</t>
+  </si>
+  <si>
+    <t>mark.antony</t>
+  </si>
+  <si>
+    <t>peter.parker</t>
+  </si>
+  <si>
+    <t>michael.uzenski</t>
+  </si>
+  <si>
+    <t>migration</t>
+  </si>
+  <si>
+    <t>dheeraj.garapati</t>
+  </si>
+  <si>
+    <t>mark.fields</t>
+  </si>
+  <si>
+    <t>aapplegate</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -748,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -808,6 +838,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -844,9 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -855,12 +893,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,6 +923,15 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,230 +1268,462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F745169B-1660-4B4A-A6F5-E5EDEC3A7608}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="11.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="5" max="5" width="16.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.109375" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="D2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="D3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="D4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="D6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="D7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="D9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="D10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,54 +1738,54 @@
       <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="33">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="36">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1528,46 +1801,46 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1584,100 +1857,100 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" width="57.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.109375" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="26">
         <f>[2]searchValues!E2</f>
         <v>44463</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="26">
         <f>[2]searchValues!E3</f>
         <v>44463</v>
       </c>
@@ -1695,107 +1968,107 @@
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="30">
+        <v>44671</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="J2" s="30">
+        <v>44671</v>
+      </c>
+      <c r="J2" s="27">
         <f ca="1">EDATE(I2,12)</f>
-        <v>45024</v>
-      </c>
-      <c r="N2" s="27" t="s">
+        <v>45036</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="24" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1808,33 +2081,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4DD99-84E7-49A4-92AE-E3E2A14B2F15}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
@@ -1852,24 +2125,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210A80ED-8E02-45CE-B477-F410F9E20AEB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1906,8 +2179,11 @@
       <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>92</v>
       </c>
@@ -1916,18 +2192,18 @@
       </c>
       <c r="E2" s="8">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44671</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="27">
+        <v>202</v>
+      </c>
+      <c r="G2" s="24">
         <v>9276637921</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="24">
         <v>243401767</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="24">
         <v>5115176037</v>
       </c>
       <c r="L2" s="9" t="s">
@@ -1947,214 +2223,214 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="23" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="22" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="32.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AA1" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AE1" s="22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28">
         <v>2015551002</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="28">
         <v>2015551003</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="28">
         <v>2015551004</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="28">
         <v>2015551005</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="19">
         <v>99501</v>
       </c>
-      <c r="V2" s="20" t="str">
-        <f>searchValues!L2</f>
+      <c r="V2" s="19" t="str">
+        <f>master!L2</f>
         <v>Alaska</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2180,7 +2456,7 @@
       <c r="W3" s="12"/>
       <c r="X3" s="12"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2206,7 +2482,7 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10"/>
@@ -2243,106 +2519,106 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.5546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.5546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="13" max="13" width="13.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.5546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.109375" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2359,70 +2635,70 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="8" max="16384" width="9.109375" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G2" s="27" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="G2" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>92</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2438,18 +2714,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2475,14 +2751,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2494,206 +2770,206 @@
       <c r="F2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="32"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="14"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,155 +2985,155 @@
       <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="57.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="34.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="22.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="22.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="18.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="32.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.5546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="34.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="22.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="22.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="18.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.88671875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.44140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.33203125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="32.6640625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="27" max="16384" width="9.109375" style="15" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
+        <v>44671</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="18"/>
       <c r="P2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="T2" s="30">
+        <v>44671</v>
+      </c>
+      <c r="T2" s="27">
         <f ca="1">TODAY()</f>
-        <v>44659</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>201</v>
+        <v>44671</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>200</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X2" t="s">
         <v>32</v>
@@ -2901,52 +3177,52 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="24" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>147</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+      <c r="F2" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2961,59 +3237,59 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>92</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
